--- a/CV,LM/Tableau_suivi_recherche_stage_Sabah.xlsx
+++ b/CV,LM/Tableau_suivi_recherche_stage_Sabah.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Entreprise</t>
   </si>
@@ -68,9 +68,6 @@
     <t>M2A</t>
   </si>
   <si>
-    <t xml:space="preserve">Candidature spontanée </t>
-  </si>
-  <si>
     <t>https://www.mulhouse.fr/mes-demarches/emploi/offres-demploi/</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>https://www.reseau-canope.fr/</t>
   </si>
   <si>
-    <t>canditature spontanée par mail</t>
-  </si>
-  <si>
     <t>Académie</t>
   </si>
   <si>
@@ -108,13 +102,46 @@
   </si>
   <si>
     <t>https://ssi.ac-strasbourg.fr/securite/missions/#:~:text=Le%20RSSI%20de%20l'acad%C3%A9mie,de%20l'acad%C3%A9mie%20de%20Strasbourg.</t>
+  </si>
+  <si>
+    <t>Eiffage/Clemssy</t>
+  </si>
+  <si>
+    <t>axel.jacquey@eiffage.com</t>
+  </si>
+  <si>
+    <t>Mulhouse</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>canditature spontanée par mail envoyé</t>
+  </si>
+  <si>
+    <t>Candidature spontanée par mail envoyé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canditature spontanée par mail envoyé et réponse </t>
+  </si>
+  <si>
+    <t>Liebherr</t>
+  </si>
+  <si>
+    <t>candidature envoyé sur site liebherr refus</t>
+  </si>
+  <si>
+    <t>https://www.liebherr.com/fr/fra/carri%C3%A8re/offres-d-emploi/offres-d-emploi.html</t>
+  </si>
+  <si>
+    <t>pas encore envoyé</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +193,13 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -222,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -297,6 +331,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -615,7 +650,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.42578125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -624,7 +659,7 @@
     <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" style="22" customWidth="1"/>
     <col min="4" max="4" width="50.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
     <col min="7" max="8" width="25.42578125" style="1"/>
     <col min="9" max="9" width="38.140625" style="1" customWidth="1"/>
@@ -668,72 +703,97 @@
       <c r="D2" s="20"/>
       <c r="E2" s="13"/>
       <c r="G2" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="C3" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="15" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="C4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="I4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="C5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="D5" s="16"/>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H5" s="6"/>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="F6" s="18"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -831,9 +891,12 @@
     <row r="84" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="85" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.59055118110236227" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" verticalDpi="2" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" verticalDpi="2" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C
 Suivi Recherche  stage observation</oddHeader>

--- a/CV,LM/Tableau_suivi_recherche_stage_Sabah.xlsx
+++ b/CV,LM/Tableau_suivi_recherche_stage_Sabah.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Entreprise</t>
   </si>
@@ -135,13 +135,61 @@
   </si>
   <si>
     <t>pas encore envoyé</t>
+  </si>
+  <si>
+    <t>Egee grand-est Alsace</t>
+  </si>
+  <si>
+    <t>03 89 43 57 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage </t>
+  </si>
+  <si>
+    <t>alsa@egee.asso.fr</t>
+  </si>
+  <si>
+    <t>Riedisheim</t>
+  </si>
+  <si>
+    <t>https://bpifrance-creation.fr/organisme/egee-grand-est-alsace/riedisheim</t>
+  </si>
+  <si>
+    <t>la Dane le numérique pour l'éducation Strasbourg</t>
+  </si>
+  <si>
+    <t>03 88 23 34 30</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>ce.dane@ac-strasbourg.fr</t>
+  </si>
+  <si>
+    <t>http://www.dane.site.ac-strasbourg.fr/la-dane/</t>
+  </si>
+  <si>
+    <t>http://ariena.org/equipe/</t>
+  </si>
+  <si>
+    <t>Ariena</t>
+  </si>
+  <si>
+    <t>03 88 58 38 48</t>
+  </si>
+  <si>
+    <t>lisa.kaeuffert@ariena.org</t>
+  </si>
+  <si>
+    <t>Colmar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +245,32 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333132"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -273,44 +347,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -319,19 +369,53 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -650,18 +734,19 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.42578125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.42578125" style="1"/>
+    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="38.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="25.42578125" style="1"/>
   </cols>
@@ -676,7 +761,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -695,118 +780,173 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="12" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="1" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -893,10 +1033,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.59055118110236227" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" verticalDpi="2" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" verticalDpi="2" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;C
 Suivi Recherche  stage observation</oddHeader>
@@ -935,16 +1077,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CV,LM/Tableau_suivi_recherche_stage_Sabah.xlsx
+++ b/CV,LM/Tableau_suivi_recherche_stage_Sabah.xlsx
@@ -12,19 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="Entreprises ciblées" sheetId="1" r:id="rId1"/>
-    <sheet name="Pistes non accessibles" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Entreprises" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Entreprises ciblées'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Entreprises!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Entreprise</t>
   </si>
@@ -32,15 +30,9 @@
     <t>adresse</t>
   </si>
   <si>
-    <t>Contact + Fonction</t>
-  </si>
-  <si>
     <t>Téléphone</t>
   </si>
   <si>
-    <t>acessibilité</t>
-  </si>
-  <si>
     <t>Offre d'emploi</t>
   </si>
   <si>
@@ -50,15 +42,6 @@
     <t>Observations</t>
   </si>
   <si>
-    <t>Cap Vision Mulhouse</t>
-  </si>
-  <si>
-    <t>4 rue d’Alsace - 68250 Rouffach</t>
-  </si>
-  <si>
-    <t>PAS ACCESSIBLE POUR MOI - trop loin de Mulhouse</t>
-  </si>
-  <si>
     <t>Adresse</t>
   </si>
   <si>
@@ -183,6 +166,57 @@
   </si>
   <si>
     <t>Colmar</t>
+  </si>
+  <si>
+    <t>https://www.randstad.fr/emploi/postuler-confirmation/?id=001-JZ-R000452_01R&amp;account=1</t>
+  </si>
+  <si>
+    <t>Randstad</t>
+  </si>
+  <si>
+    <t>Isarta</t>
+  </si>
+  <si>
+    <t>https://isarta.fr/cgi-bin/emplois/jobs.cgi?infield=any&amp;attitude=minimum&amp;domaine=Recherche&amp;key1=Recherche&amp;view=liste&amp;words=grand+est</t>
+  </si>
+  <si>
+    <t>https://emploi.isagri.fr/candidature-spontanee/confirmation?utm_source=Indeed&amp;utm_medium=sponsored&amp;utm_campaign=Indeed&amp;token=sXRsSNQy6JOB24sxyEJaQgRpNNe5bSCeUEgaNMrDyzE</t>
+  </si>
+  <si>
+    <t>isagris</t>
+  </si>
+  <si>
+    <t>candidature spontané envoyé le 08/07/2022</t>
+  </si>
+  <si>
+    <t>candidature spontané posté sur ce site le 08/07/2022</t>
+  </si>
+  <si>
+    <t>candidature spontanée envoyé le 01/07/2022</t>
+  </si>
+  <si>
+    <t>dominique.obe@intradef.gouv.fr</t>
+  </si>
+  <si>
+    <t>fonction publique</t>
+  </si>
+  <si>
+    <t>https://www.pass.fonction-publique.gouv.fr/offre/developpeur-web-0</t>
+  </si>
+  <si>
+    <t>https://www.cekome-recrutement.com/candidature-spontanee/?idform=candidatureSpontanee&amp;etatmail=8</t>
+  </si>
+  <si>
+    <t>Cekome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colmar </t>
+  </si>
+  <si>
+    <t>7 rue de Ribeaupierre 68125 Houssen</t>
+  </si>
+  <si>
+    <t>03 89 77 10 11</t>
   </si>
 </sst>
 </file>
@@ -276,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,12 +326,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -341,14 +369,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,9 +390,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -414,6 +433,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -731,236 +753,277 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.42578125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="25.42578125" style="1"/>
+    <col min="3" max="3" width="50.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="25.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="C2" s="15" t="s">
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="21" t="s">
+      <c r="G3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="21" t="s">
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="C3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="23" t="s">
+    <row r="6" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="C4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="H6" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="C5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="C6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="28" t="s">
+      <c r="G8" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="C7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="C8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="C9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1032,9 +1095,9 @@
     <row r="85" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.59055118110236227" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.19685039370078741"/>
@@ -1044,63 +1107,4 @@
 Suivi Recherche  stage observation</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>